--- a/马萧萧学考/学考成绩.xlsx
+++ b/马萧萧学考/学考成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧学考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD260C-68A9-42CB-804B-8E67EAADEB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1248E46-95D5-4476-9099-326A88AF3A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,6 +463,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1852,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,6 +1904,9 @@
       <c r="C3">
         <v>89</v>
       </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/马萧萧学考/学考成绩.xlsx
+++ b/马萧萧学考/学考成绩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧学考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1248E46-95D5-4476-9099-326A88AF3A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5CC772-D835-430B-AD44-C5CDC956363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16245" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,10 +274,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -298,16 +298,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>82</c:v>
                 </c:pt>
@@ -316,6 +319,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,10 +430,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -448,16 +454,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>92</c:v>
                 </c:pt>
@@ -466,6 +475,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,10 +586,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -598,16 +610,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>86</c:v>
                 </c:pt>
@@ -616,6 +631,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,10 +740,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -746,16 +764,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:f>Sheet1!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>72</c:v>
                 </c:pt>
@@ -764,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,15 +1873,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1879,8 +1903,11 @@
       <c r="H1">
         <v>7</v>
       </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1893,8 +1920,11 @@
       <c r="D2">
         <v>88</v>
       </c>
+      <c r="E2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1907,8 +1937,11 @@
       <c r="D3">
         <v>90</v>
       </c>
+      <c r="E3">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1921,8 +1954,11 @@
       <c r="D4">
         <v>81</v>
       </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1934,6 +1970,9 @@
       </c>
       <c r="D5">
         <v>70</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
